--- a/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249326</v>
+        <v>249327</v>
       </c>
       <c r="D3" t="n">
         <v>47457</v>
       </c>
       <c r="E3" t="n">
-        <v>1036473141</v>
+        <v>1036476130</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103464</v>
+        <v>103466</v>
       </c>
       <c r="D4" t="n">
         <v>18692</v>
       </c>
       <c r="E4" t="n">
-        <v>627487959</v>
+        <v>627499207</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="D62" t="n">
         <v>797</v>
       </c>
       <c r="E62" t="n">
-        <v>9183365</v>
+        <v>9186399</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151099</v>
+        <v>151105</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>482094331</v>
+        <v>482131030</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409008</v>
+        <v>409019</v>
       </c>
       <c r="D92" t="n">
         <v>70904</v>
       </c>
       <c r="E92" t="n">
-        <v>1593629185</v>
+        <v>1593716220</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209490</v>
+        <v>209507</v>
       </c>
       <c r="D93" t="n">
         <v>34260</v>
       </c>
       <c r="E93" t="n">
-        <v>1307691204</v>
+        <v>1307872027</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94144</v>
+        <v>94148</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>915770565</v>
+        <v>915830612</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50725</v>
+        <v>50728</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>930561390</v>
+        <v>930867754</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17245</v>
+        <v>17247</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>789519490</v>
+        <v>789598588</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135217</v>
+        <v>135223</v>
       </c>
       <c r="D104" t="n">
         <v>23286</v>
       </c>
       <c r="E104" t="n">
-        <v>272107255</v>
+        <v>272132060</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="D114" t="n">
         <v>699</v>
       </c>
       <c r="E114" t="n">
-        <v>9098224</v>
+        <v>9102060</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11691</v>
+        <v>11692</v>
       </c>
       <c r="D115" t="n">
         <v>2248</v>
       </c>
       <c r="E115" t="n">
-        <v>32947448</v>
+        <v>32953239</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="D116" t="n">
         <v>967</v>
       </c>
       <c r="E116" t="n">
-        <v>20518835</v>
+        <v>20567318</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D127" t="n">
         <v>10</v>
       </c>
       <c r="E127" t="n">
-        <v>201090</v>
+        <v>207876</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5781,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>75580</v>
+        <v>75581</v>
       </c>
       <c r="D131" t="n">
         <v>15099</v>
       </c>
       <c r="E131" t="n">
-        <v>307202531</v>
+        <v>307211165</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -6847,13 +6847,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>12096</v>
+        <v>12097</v>
       </c>
       <c r="D157" t="n">
         <v>1994</v>
       </c>
       <c r="E157" t="n">
-        <v>182902198</v>
+        <v>182911050</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
